--- a/Calendar.xlsx
+++ b/Calendar.xlsx
@@ -433,7 +433,7 @@
     </row>
     <row r="4">
       <c r="B4" s="2">
-        <v>44977.0</v>
+        <v>44980.0</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
@@ -447,7 +447,7 @@
     </row>
     <row r="5">
       <c r="B5" s="2">
-        <v>44991.0</v>
+        <v>44994.0</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="3" t="s">
@@ -459,7 +459,7 @@
     </row>
     <row r="6">
       <c r="B6" s="2">
-        <v>45005.0</v>
+        <v>45008.0</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="3" t="s">
@@ -471,7 +471,7 @@
     </row>
     <row r="7">
       <c r="B7" s="2">
-        <v>45019.0</v>
+        <v>45022.0</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="3" t="s">
@@ -483,7 +483,7 @@
     </row>
     <row r="8">
       <c r="B8" s="2">
-        <v>45033.0</v>
+        <v>45036.0</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="3" t="s">
@@ -495,7 +495,7 @@
     </row>
     <row r="9">
       <c r="B9" s="2">
-        <v>45047.0</v>
+        <v>45050.0</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="3" t="s">
@@ -507,7 +507,7 @@
     </row>
     <row r="10">
       <c r="B10" s="2">
-        <v>45061.0</v>
+        <v>45064.0</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="3" t="s">
@@ -519,7 +519,7 @@
     </row>
     <row r="11">
       <c r="B11" s="2">
-        <v>45075.0</v>
+        <v>45078.0</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="3" t="s">
@@ -531,7 +531,7 @@
     </row>
     <row r="12">
       <c r="B12" s="2">
-        <v>45089.0</v>
+        <v>45092.0</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="3" t="s">
@@ -543,7 +543,7 @@
     </row>
     <row r="13">
       <c r="B13" s="2">
-        <v>45103.0</v>
+        <v>45106.0</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="3" t="s">
